--- a/EnsembleRegressionTSLA_data_with_prediction.xlsx
+++ b/EnsembleRegressionTSLA_data_with_prediction.xlsx
@@ -645,6 +645,9 @@
       <c r="AA2">
         <v>0</v>
       </c>
+      <c r="AB2">
+        <v>0.5758531837252193</v>
+      </c>
       <c r="AC2">
         <v>1</v>
       </c>
@@ -731,6 +734,9 @@
       <c r="AA3">
         <v>0</v>
       </c>
+      <c r="AB3">
+        <v>0.3875584177971766</v>
+      </c>
       <c r="AC3">
         <v>1</v>
       </c>
@@ -820,6 +826,9 @@
       <c r="AA4">
         <v>0</v>
       </c>
+      <c r="AB4">
+        <v>0.263323795011487</v>
+      </c>
       <c r="AC4">
         <v>1</v>
       </c>
@@ -909,8 +918,11 @@
       <c r="AA5">
         <v>1</v>
       </c>
+      <c r="AB5">
+        <v>0.184042929938158</v>
+      </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>-0.08782510365623819</v>
@@ -998,11 +1010,14 @@
       <c r="AA6">
         <v>1</v>
       </c>
+      <c r="AB6">
+        <v>0.3585390729305011</v>
+      </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.006244260789715295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1087,11 +1102,14 @@
       <c r="AA7">
         <v>1</v>
       </c>
+      <c r="AB7">
+        <v>0.5927845411628769</v>
+      </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.001870779339295581</v>
       </c>
     </row>
   </sheetData>
